--- a/src/invoices.xlsx
+++ b/src/invoices.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoices" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line_Items" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,168 +485,3072 @@
           <t>Client Project</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8713</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Deco Homes</t>
+          <t>Marz Homes
+Anthony Chiarella
+Invoice No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>570 Applewood Crescent,</t>
+          <t>Anthony Chiarella</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Unit 1</t>
+          <t>Suite 200</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaughan</t>
+          <t>Stoney Creek</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>Da</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L4K 4B4</t>
+          <t>L8E 0J7</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>A0546</t>
+          <t>A0332</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Honeystone</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>To bill for time spent in October 2023 after launch on document revisions as per Schedule "A1" - Fee Schedule of the contract (1.5 hours) - Schedule S - Site Plan</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>225.00</t>
+          <t>The Shores</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4560</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Branthaven Marz Inc.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>720 Oval Court</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Burlington</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L7L 6A9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>A0224</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Casa De Torri</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mapleview Developments Ltd.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30 Wertheim Court</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L4B 1B9</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>A0178</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Urban North</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4678</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Branthaven Marz Inc.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>720 Oval Court</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Burlington</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L7L 6A9</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>A0224</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Casa De Torri</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mapleview Developments Ltd.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30 Wertheim Court</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L4B 1B9</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>A0178</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Urban North</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Branthaven Marz Inc.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>720 Oval Court</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Burlington</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L7L 6A9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>A0224</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Casa De Torri</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Branthaven Marz Inc.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>720 Oval Court</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Burlington</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L7L 6A9</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>A0224</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Casa De Torri</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mapleview Developments Ltd.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30 Wertheim Court</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L4B 1B9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>A0178</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Urban North</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-04-30</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mapleview Developments Ltd.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30 Wertheim Court</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Richmond Hill</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L4B 1B9</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A0178</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Urban North</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Invoice No not found</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Date not found</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Client not found</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Suite 200</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stoney Creek</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L8E 0J7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fifth Avenue</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>101B Roytec Road</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L4L 8A9</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A0451</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>North West</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>A0429-DE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>GO Towns</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7685</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Cachet Homes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>361 Connie Crescent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Suite 200</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L4K 5R2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A0426</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Erin Glen</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Windfall Mountain Homes Inc.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>55 Mulcaster St.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Suite 800</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Barrie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L4M 0J4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8273</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-07-07</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>A0504</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Greenwood Seaton</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8327</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Cachet Homes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>361 Connie Crescent</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Suite 200</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L4K 5R2</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A0426</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Erin Glen</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8670</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Laurelcrest Homes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Inc.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>L4K 3Z9</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>8712</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>A0546</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Honeystone</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>8713</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>A0546</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Honeystone</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>A0546</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Honeystone</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cachet Developments</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2555 Meadowpine Blvd</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>L5N 6C3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>A0521</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Woodstock</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cachet Developments</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2555 Meadowpine Blvd</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Unit 3</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mississauga</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>L5N 6C3</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>A0522</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>New Dundee Kitchener</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>A0429-DE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>GO Towns</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8755</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>A0445</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Seatonville</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>A0464</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Seaton South</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>8757</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>A0504</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Greenwood Seaton</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8835</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-11-30</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Deco Homes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>570 Applewood Crescent</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Unit 1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Vaughan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Da</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>L4K 4B4</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>A0546</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Honeystone</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Invoice No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 1 (e) of the contract - June 2020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4075</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-10-31</t>
+          <t>HST On Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Deco Homes</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>570 Applewood Crescent,</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Unit 1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vaughan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>L4K 4B4</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>A0546</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Honeystone</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 1 (e) of the contract Sept 2020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>HST On Sales</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>13.00%</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4560</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: November, 2020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4560</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: November, 2020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4678</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: December, 2020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4678</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: December, 2020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: January, 2021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4777</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: February, 2021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4889</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 3 of the contract: April, 2021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5230</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>To bill for Set Up and Configuration as per the Supplemental Software Agreement - 66 Stacked Townhomes released (Phase 4B - Blocks 70 to 75)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>235.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>15,510.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5279</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,016.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25% of Subscription as per section 2 of the contract: 36 lots @ $150.00 per lot</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5,400.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,350.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>175.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract August, 2022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7115</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract September, 2022 Maintenance Mode</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7685</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>To bill for Additional agreements, forms and schedules as per section 2 of the contract Schedule N</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7685</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 1 (e) of the contract: June, 2023</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>8173</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>8273</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract July, 2023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>8273</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>8327</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>To bill for Additional agreements, forms and schedules as per section 2 of the contract Agreement of Purchase and Sale Exterior Colour Package</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>800.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>8327</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>104.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>8670</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per section 2 of the contract. October, 2023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>8670</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>8712</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>To bill for Simple Documents, Agreements, Forms and Schedules as per Schedule "A1" - Fee Schedule of the contract - Schedule A - Schedule B - Appliance - Schedule B - Decor Dollars - Schedule E - House Sketch - House Sketch - Block Plan - Schedule N - Schedule NC - Schedule S - Site Plan - Schedule W - Schedule X - Home Buyers Information Map - Agreement for Commission - OREA - Form 634 - Purchaser 1 - OREA - Form 634 - Purchaser 2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>8712</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>780.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>8713</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>To bill for time spent in October 2023 after launch on document revisions as per Schedule "A1" - Fee Schedule of the contract (1.5 hours) - Schedule S - Site Plan</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>225.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8713</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>29.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>To bill for Linked Images as per Schedule "A1" - Fee Schedule of the contract 77 Images To bill for Mapped Images as per Schedule "A1" - Fee Schedule of 39 40.00 1,560.00 the contract 39 Elevations</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8714</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>254.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25% of Subscription as per Schedule "A1" - Fee Schedule of the contract: 429 lots @ $175.00 per lot</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>75,075.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>18,768.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>8717</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2,439.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>25% of Subscription as per Schedule "A1" - Fee Schedule of the contract: 127 lots @ $175.00 per lot</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>22,225.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>5,556.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>722.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract: November, 2023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8755</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract November, 2023</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>8755</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract Maintenance Mode November, 2023</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>8757</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>To bill for Hosting and Upgrades as per Schedule A, section 2 of the contract November, 2023</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8757</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>26.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>8835</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>To bill for time spent in November 2023 after launch on document revisions as per Schedule "A1" - Fee Schedule of the contract (1.0 hours) - Schedule W</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>8835</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HST On Sales</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>19.50</t>
         </is>
       </c>
     </row>

--- a/src/invoices.xlsx
+++ b/src/invoices.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,25 +462,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Building</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>City</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Province</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Postal Code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Agreement No</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Client Project</t>
         </is>
@@ -516,25 +521,30 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Stoney Creek</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>L8E 0J7</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>A0332</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>The Shores</t>
         </is>
@@ -568,27 +578,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>A0212</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Origins - Additional Lots</t>
         </is>
       </c>
     </row>
@@ -620,25 +635,30 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>L7L 6A9</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>A0224</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Casa De Torri</t>
         </is>
@@ -672,25 +692,30 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Bldg. A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Richmond Hill</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>L4B 1B9</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>A0178</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Urban North</t>
         </is>
@@ -724,25 +749,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>L7L 6A9</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>A0224</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Casa De Torri</t>
         </is>
@@ -776,25 +806,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Bldg. A</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Richmond Hill</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>L4B 1B9</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>A0178</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Urban North</t>
         </is>
@@ -828,25 +863,30 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>L7L 6A9</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>A0224</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Casa De Torri</t>
         </is>
@@ -880,25 +920,30 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Burlington</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>L7L 6A9</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>A0224</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Casa De Torri</t>
         </is>
@@ -932,25 +977,30 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Bldg. A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Richmond Hill</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>L4B 1B9</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>A0178</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Urban North</t>
         </is>
@@ -984,25 +1034,30 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Bldg. A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Richmond Hill</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>L4B 1B9</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>A0178</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Urban North</t>
         </is>
@@ -1036,25 +1091,30 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Stoney Creek</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Cr</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>L8E 0J7</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -1088,25 +1148,30 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>L4L 8A9</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>A0451</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>North West</t>
         </is>
@@ -1140,25 +1205,30 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>A0429-DE</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>GO Towns</t>
         </is>
@@ -1192,27 +1262,32 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>A0456DE</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Whitby Meadows Phase 3</t>
         </is>
       </c>
     </row>
@@ -1244,25 +1319,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Concord</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>L4K 5R2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>A0426</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Erin Glen</t>
         </is>
@@ -1296,27 +1376,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Barrie</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>L4M 0J4</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>A0330</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Windfall Phase 4B</t>
         </is>
       </c>
     </row>
@@ -1348,25 +1433,30 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>A0504</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Greenwood Seaton</t>
         </is>
@@ -1400,25 +1490,30 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Concord</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>L4K 5R2</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>A0426</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Erin Glen</t>
         </is>
@@ -1457,22 +1552,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Da</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>L4K 3Z9</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>A0501</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Fairway Meadows Phase 2</t>
         </is>
       </c>
     </row>
@@ -1504,25 +1604,30 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>A0546</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Honeystone</t>
         </is>
@@ -1556,25 +1661,30 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>A0546</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Honeystone</t>
         </is>
@@ -1608,25 +1718,30 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>A0546</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Honeystone</t>
         </is>
@@ -1660,25 +1775,30 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Mississauga</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>L5N 6C3</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>A0521</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Woodstock</t>
         </is>
@@ -1712,25 +1832,30 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Mississauga</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>L5N 6C3</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>A0522</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>New Dundee Kitchener</t>
         </is>
@@ -1764,25 +1889,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>A0429-DE</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>GO Towns</t>
         </is>
@@ -1816,25 +1946,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>A0445</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Seatonville</t>
         </is>
@@ -1868,25 +2003,30 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>A0464</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Seaton South</t>
         </is>
@@ -1920,25 +2060,30 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>A0504</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Greenwood Seaton</t>
         </is>
@@ -1972,25 +2117,30 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Vaughan</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Da</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>L4K 4B4</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>A0546</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Honeystone</t>
         </is>
